--- a/biology/Zoologie/Carcharodopharynx/Carcharodopharynx.xlsx
+++ b/biology/Zoologie/Carcharodopharynx/Carcharodopharynx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carcharodopharynx est un genre de vers plats terrestres de la famille des Typhloplanidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carcharodopharynx Poche, 1926[1].
-Anciennement considéré comme unique représentant de la famille des Carcharodopharyngidae, le genre a été reclassé dans la famille des Typhloplanidae. La famille des Carcharodopharyngidae a ainsi été supprimée[1].
-Synonymes
-Carcharodopharynx a pour synonyme Acanthopharynx Reisinger, 1924[1].
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (3 janvier 2024)[1], le genre Carcharodopharynx contient les espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Carcharodopharynx Poche, 1926.
+Anciennement considéré comme unique représentant de la famille des Carcharodopharyngidae, le genre a été reclassé dans la famille des Typhloplanidae. La famille des Carcharodopharyngidae a ainsi été supprimée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carcharodopharynx</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcharodopharynx</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carcharodopharynx a pour synonyme Acanthopharynx Reisinger, 1924.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carcharodopharynx</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carcharodopharynx</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (3 janvier 2024), le genre Carcharodopharynx contient les espèces suivantes :
 Carcharodopharynx arcanus (Reisinger, 1924) Poche, 1926 ;
 Carcharodopharynx schlitzensis Houben, Schwank &amp; Artois, 2015.</t>
         </is>
